--- a/target/classes/excel/img/imit_tempo.xlsx
+++ b/target/classes/excel/img/imit_tempo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FD95DC-E65B-403C-993E-1B950B336AB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D556A10-C1E3-4015-81A4-EBE57E952B55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,22 +27,9 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SirAlwaid</author>
+    <author>MauroWB</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E26C7F4D-8B30-4E4F-868F-CB8ACF7B1AF2}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:each(</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{AC0362F1-C412-4A48-86F1-83A2861C940F}">
       <text>
         <r>
@@ -489,9 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
